--- a/Video Timecode Modifier/Time Conversion.xlsx
+++ b/Video Timecode Modifier/Time Conversion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcbb1\OneDrive\Desktop\Garmin Virb Sync Test\Video Timecode Modifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcbb1\OneDrive\Desktop\Video Timecode Modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46DD3B-F188-44C7-9AC2-F6825AA3C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBA30C-66DE-4777-919B-284D75B520C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="429" windowWidth="21943" windowHeight="11314" xr2:uid="{A39CE188-709C-4E2F-B6B5-19B2A56F7B10}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{A39CE188-709C-4E2F-B6B5-19B2A56F7B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Timezone Offset:</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Activity File Event Time (24H, M, S)</t>
+  </si>
+  <si>
+    <t>File Number to Sync</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd&quot;T&quot;hh:mm:ss&quot;.000000Z&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +95,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3A3A3A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,18 +134,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF008000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -175,24 +161,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="19" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE6790-A06E-4F73-A4FE-26293B0AA022}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,11 +500,12 @@
     <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.61328125" customWidth="1"/>
     <col min="5" max="5" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="31.921875" customWidth="1"/>
+    <col min="7" max="7" width="25.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2"/>
@@ -538,10 +522,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -549,93 +533,101 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-5</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7">
-        <f>TIME(B5,C5,D5)</f>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45191</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <f>((B6*3600)+(C6*60)+D6)</f>
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>TIME(B6,C6,D6)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9">
-        <f>B4+(E5-(E6/86400))+(-B3/24)</f>
-        <v>0.20833333333333334</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>((B7*3600)+(C7*60)+D7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8">
-        <f>E7</f>
-        <v>0.20833333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
+        <f>B5+(E6-(E7/86400))+(-B4/24)</f>
+        <v>45191.708333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10">
+        <f t="shared" ref="E9" si="0">E8+(((C8*60)+D8)/86400)</f>
+        <v>45191.708333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5">
-        <v>56</v>
-      </c>
-      <c r="E12" s="11">
-        <f>Sheet1!E8</f>
-        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5">
         <v>14</v>
@@ -643,14 +635,14 @@
       <c r="D13" s="5">
         <v>56</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" ref="E13:E31" si="0">E12+(((C12*60)+D12)/86400)</f>
-        <v>0.21870370370370371</v>
+      <c r="E13" s="10">
+        <f>IF($B$3=B13,$E$9,E14-(((C13*60)+D13)/86400))</f>
+        <v>45191.708333333336</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
         <v>14</v>
@@ -658,14 +650,14 @@
       <c r="D14" s="5">
         <v>56</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.22907407407407407</v>
+      <c r="E14" s="10">
+        <f>IF($B$3=B14,$E$9,IF($B$3&lt;B14,E13+(((C13*60)+D13)/86400),E15-(((C14*60)+D14)/86400)))</f>
+        <v>45191.718703703707</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>14</v>
@@ -673,14 +665,14 @@
       <c r="D15" s="5">
         <v>56</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.23944444444444443</v>
+      <c r="E15" s="10">
+        <f t="shared" ref="E15:E32" si="1">IF($B$3=B15,$E$9,IF($B$3&lt;B15,E14+(((C14*60)+D14)/86400),E16-(((C15*60)+D15)/86400)))</f>
+        <v>45191.729074074079</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>14</v>
@@ -688,14 +680,14 @@
       <c r="D16" s="5">
         <v>56</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.2498148148148148</v>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.739444444451</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5">
         <v>14</v>
@@ -703,14 +695,14 @@
       <c r="D17" s="5">
         <v>56</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.26018518518518519</v>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.749814814822</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5">
         <v>14</v>
@@ -718,14 +710,14 @@
       <c r="D18" s="5">
         <v>56</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>0.27055555555555555</v>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.760185185194</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5">
         <v>14</v>
@@ -733,14 +725,14 @@
       <c r="D19" s="5">
         <v>56</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
-        <v>0.28092592592592591</v>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.770555555566</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5">
         <v>14</v>
@@ -748,14 +740,14 @@
       <c r="D20" s="5">
         <v>56</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>0.29129629629629628</v>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.780925925937</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5">
         <v>14</v>
@@ -763,14 +755,14 @@
       <c r="D21" s="5">
         <v>56</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
-        <v>0.30166666666666664</v>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.791296296309</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5">
         <v>14</v>
@@ -778,14 +770,14 @@
       <c r="D22" s="5">
         <v>56</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="0"/>
-        <v>0.312037037037037</v>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.801666666681</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5">
         <v>14</v>
@@ -793,14 +785,14 @@
       <c r="D23" s="5">
         <v>56</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="0"/>
-        <v>0.32240740740740736</v>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.812037037053</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5">
         <v>14</v>
@@ -808,14 +800,14 @@
       <c r="D24" s="5">
         <v>56</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" si="0"/>
-        <v>0.33277777777777773</v>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.822407407424</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5">
         <v>14</v>
@@ -823,14 +815,14 @@
       <c r="D25" s="5">
         <v>56</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.34314814814814809</v>
+      <c r="E25" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.832777777796</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5">
         <v>14</v>
@@ -838,14 +830,14 @@
       <c r="D26" s="5">
         <v>56</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="0"/>
-        <v>0.35351851851851845</v>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.843148148168</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="5">
         <v>14</v>
@@ -853,14 +845,14 @@
       <c r="D27" s="5">
         <v>56</v>
       </c>
-      <c r="E27" s="11">
-        <f t="shared" si="0"/>
-        <v>0.36388888888888882</v>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.853518518539</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="5">
         <v>14</v>
@@ -868,14 +860,14 @@
       <c r="D28" s="5">
         <v>56</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="0"/>
-        <v>0.37425925925925918</v>
+      <c r="E28" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.863888888911</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="5">
         <v>14</v>
@@ -883,14 +875,14 @@
       <c r="D29" s="5">
         <v>56</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="0"/>
-        <v>0.38462962962962954</v>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.874259259283</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="5">
         <v>14</v>
@@ -898,24 +890,39 @@
       <c r="D30" s="5">
         <v>56</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" si="0"/>
-        <v>0.39499999999999991</v>
+      <c r="E30" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.884629629654</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5">
+        <v>56</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.895000000026</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="4">
         <v>20</v>
       </c>
-      <c r="C31" s="5">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5">
-        <v>56</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" si="0"/>
-        <v>0.40537037037037027</v>
+      <c r="C32" s="5">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5">
+        <v>56</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="1"/>
+        <v>45191.905370370398</v>
       </c>
     </row>
   </sheetData>

--- a/Video Timecode Modifier/Time Conversion.xlsx
+++ b/Video Timecode Modifier/Time Conversion.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcbb1\OneDrive\Desktop\Video Timecode Modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBA30C-66DE-4777-919B-284D75B520C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9923E0A-0D74-495B-9E04-D8718FE85135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{A39CE188-709C-4E2F-B6B5-19B2A56F7B10}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{A39CE188-709C-4E2F-B6B5-19B2A56F7B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Timezone Offset:</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>File Number to Sync</t>
+  </si>
+  <si>
+    <t>FileNumber</t>
   </si>
 </sst>
 </file>
@@ -161,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -490,9 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE6790-A06E-4F73-A4FE-26293B0AA022}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -500,429 +504,712 @@
     <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.61328125" customWidth="1"/>
     <col min="5" max="5" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.921875" customWidth="1"/>
-    <col min="7" max="7" width="25.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.23046875" customWidth="1"/>
+    <col min="7" max="7" width="10.765625" customWidth="1"/>
+    <col min="9" max="9" width="29.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4">
+        <v>56</v>
+      </c>
+      <c r="I2" s="9">
+        <f>IF(Sheet1!$B$3=F2,Sheet1!$E$9,I3-(((G2*60)+H2)/86400))</f>
+        <v>45191.716319444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4">
+        <v>56</v>
+      </c>
+      <c r="I3" s="9">
+        <f>IF(Sheet1!$B$3=F3,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F3,I2+(((G2*60)+H2)/86400),I4-(((G3*60)+H3)/86400)))</f>
+        <v>45191.726689814815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>-5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="G4" s="4">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
+        <v>56</v>
+      </c>
+      <c r="I4" s="9">
+        <f>IF(Sheet1!$B$3=F4,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F4,I3+(((G3*60)+H3)/86400),I5-(((G4*60)+H4)/86400)))</f>
+        <v>45191.737060185187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
         <v>45191</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4">
+        <v>56</v>
+      </c>
+      <c r="I5" s="9">
+        <f>IF(Sheet1!$B$3=F5,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F5,I4+(((G4*60)+H4)/86400),I6-(((G5*60)+H5)/86400)))</f>
+        <v>45191.747430555559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <f>TIME(B6,C6,D6)</f>
+        <v>0.50798611111111114</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9">
+        <f>IF(Sheet1!$B$3=F6,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F6,I5+(((G5*60)+H5)/86400),I7-(((G6*60)+H6)/86400)))</f>
+        <v>45191.75780092593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
-        <f>TIME(B6,C6,D6)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>((B7*3600)+(C7*60)+D7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4">
+        <v>56</v>
+      </c>
+      <c r="I7" s="9">
+        <f>IF(Sheet1!$B$3=F7,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F7,I6+(((G6*60)+H6)/86400),I8-(((G7*60)+H7)/86400)))</f>
+        <v>45191.768171296302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7">
         <f>B5+(E6-(E7/86400))+(-B4/24)</f>
-        <v>45191.708333333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+        <v>45191.716319444444</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>56</v>
+      </c>
+      <c r="I8" s="9">
+        <f>IF(Sheet1!$B$3=F8,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F8,I7+(((G7*60)+H7)/86400),I9-(((G8*60)+H8)/86400)))</f>
+        <v>45191.778541666674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="10">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="9">
         <f t="shared" ref="E9" si="0">E8+(((C8*60)+D8)/86400)</f>
-        <v>45191.708333333336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5">
-        <v>56</v>
-      </c>
-      <c r="E13" s="10">
-        <f>IF($B$3=B13,$E$9,E14-(((C13*60)+D13)/86400))</f>
-        <v>45191.708333333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5">
-        <v>56</v>
-      </c>
-      <c r="E14" s="10">
-        <f>IF($B$3=B14,$E$9,IF($B$3&lt;B14,E13+(((C13*60)+D13)/86400),E15-(((C14*60)+D14)/86400)))</f>
-        <v>45191.718703703707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5">
-        <v>56</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" ref="E15:E32" si="1">IF($B$3=B15,$E$9,IF($B$3&lt;B15,E14+(((C14*60)+D14)/86400),E16-(((C15*60)+D15)/86400)))</f>
-        <v>45191.729074074079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5">
-        <v>56</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.739444444451</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5">
-        <v>56</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.749814814822</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="4">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5">
-        <v>56</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.760185185194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="4">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5">
-        <v>56</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.770555555566</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="4">
+        <v>45191.716319444444</v>
+      </c>
+      <c r="F9" s="3">
         <v>8</v>
       </c>
-      <c r="C20" s="5">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5">
-        <v>56</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.780925925937</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="4">
+      <c r="G9" s="4">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4">
+        <v>56</v>
+      </c>
+      <c r="I9" s="9">
+        <f>IF(Sheet1!$B$3=F9,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F9,I8+(((G8*60)+H8)/86400),I10-(((G9*60)+H9)/86400)))</f>
+        <v>45191.788912037046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F10" s="3">
         <v>9</v>
       </c>
-      <c r="C21" s="5">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.791296296309</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="4">
+      <c r="G10" s="4">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>56</v>
+      </c>
+      <c r="I10" s="9">
+        <f>IF(Sheet1!$B$3=F10,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F10,I9+(((G9*60)+H9)/86400),I11-(((G10*60)+H10)/86400)))</f>
+        <v>45191.799282407417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="C22" s="5">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5">
-        <v>56</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.801666666681</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="4">
+      <c r="G11" s="4">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4">
+        <v>56</v>
+      </c>
+      <c r="I11" s="9">
+        <f>IF(Sheet1!$B$3=F11,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F11,I10+(((G10*60)+H10)/86400),I12-(((G11*60)+H11)/86400)))</f>
+        <v>45191.809652777789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F12" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="5">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5">
-        <v>56</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.812037037053</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
+      <c r="G12" s="4">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4">
+        <v>56</v>
+      </c>
+      <c r="I12" s="9">
+        <f>IF(Sheet1!$B$3=F12,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F12,I11+(((G11*60)+H11)/86400),I13-(((G12*60)+H12)/86400)))</f>
+        <v>45191.820023148161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F13" s="3">
         <v>12</v>
       </c>
-      <c r="C24" s="5">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5">
-        <v>56</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.822407407424</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
+      <c r="G13" s="4">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>56</v>
+      </c>
+      <c r="I13" s="9">
+        <f>IF(Sheet1!$B$3=F13,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F13,I12+(((G12*60)+H12)/86400),I14-(((G13*60)+H13)/86400)))</f>
+        <v>45191.830393518532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F14" s="3">
         <v>13</v>
       </c>
-      <c r="C25" s="5">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5">
-        <v>56</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.832777777796</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="4">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5">
-        <v>56</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.843148148168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="4">
+      <c r="G14" s="4">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4">
+        <v>56</v>
+      </c>
+      <c r="I14" s="9">
+        <f>IF(Sheet1!$B$3=F14,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F14,I13+(((G13*60)+H13)/86400),I15-(((G14*60)+H14)/86400)))</f>
+        <v>45191.840763888904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F15" s="3">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4">
+        <v>56</v>
+      </c>
+      <c r="I15" s="9">
+        <f>IF(Sheet1!$B$3=F15,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F15,I14+(((G14*60)+H14)/86400),I16-(((G15*60)+H15)/86400)))</f>
+        <v>45191.851134259276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F16" s="3">
         <v>15</v>
       </c>
-      <c r="C27" s="5">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5">
-        <v>56</v>
-      </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.853518518539</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="4">
+      <c r="G16" s="4">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4">
+        <v>56</v>
+      </c>
+      <c r="I16" s="9">
+        <f>IF(Sheet1!$B$3=F16,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F16,I15+(((G15*60)+H15)/86400),I17-(((G16*60)+H16)/86400)))</f>
+        <v>45191.861504629647</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F17" s="3">
         <v>16</v>
       </c>
-      <c r="C28" s="5">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5">
-        <v>56</v>
-      </c>
-      <c r="E28" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.863888888911</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="4">
+      <c r="G17" s="4">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>56</v>
+      </c>
+      <c r="I17" s="9">
+        <f>IF(Sheet1!$B$3=F17,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F17,I16+(((G16*60)+H16)/86400),I18-(((G17*60)+H17)/86400)))</f>
+        <v>45191.871875000019</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F18" s="3">
         <v>17</v>
       </c>
-      <c r="C29" s="5">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5">
-        <v>56</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.874259259283</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="4">
+      <c r="G18" s="4">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9">
+        <f>IF(Sheet1!$B$3=F18,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F18,I17+(((G17*60)+H17)/86400),I19-(((G18*60)+H18)/86400)))</f>
+        <v>45191.882245370391</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="3">
         <v>18</v>
       </c>
-      <c r="C30" s="5">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5">
-        <v>56</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.884629629654</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="4">
+      <c r="G19" s="4">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4">
+        <v>56</v>
+      </c>
+      <c r="I19" s="9">
+        <f>IF(Sheet1!$B$3=F19,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F19,I18+(((G18*60)+H18)/86400),I20-(((G19*60)+H19)/86400)))</f>
+        <v>45191.892615740762</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F20" s="3">
         <v>19</v>
       </c>
-      <c r="C31" s="5">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5">
-        <v>56</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.895000000026</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="4">
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20" s="4">
+        <v>56</v>
+      </c>
+      <c r="I20" s="9">
+        <f>IF(Sheet1!$B$3=F20,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F20,I19+(((G19*60)+H19)/86400),I21-(((G20*60)+H20)/86400)))</f>
+        <v>45191.902986111134</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F21" s="3">
         <v>20</v>
       </c>
-      <c r="C32" s="5">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5">
-        <v>56</v>
-      </c>
-      <c r="E32" s="10">
-        <f t="shared" si="1"/>
-        <v>45191.905370370398</v>
+      <c r="G21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4">
+        <v>56</v>
+      </c>
+      <c r="I21" s="9">
+        <f>IF(Sheet1!$B$3=F21,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F21,I20+(((G20*60)+H20)/86400),I22-(((G21*60)+H21)/86400)))</f>
+        <v>45191.913356481506</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F22" s="3">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4">
+        <v>56</v>
+      </c>
+      <c r="I22" s="9">
+        <f>IF(Sheet1!$B$3=F22,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F22,I21+(((G21*60)+H21)/86400),I23-(((G22*60)+H22)/86400)))</f>
+        <v>45191.923726851877</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F23" s="3">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4">
+        <v>56</v>
+      </c>
+      <c r="I23" s="9">
+        <f>IF(Sheet1!$B$3=F23,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F23,I22+(((G22*60)+H22)/86400),I24-(((G23*60)+H23)/86400)))</f>
+        <v>45191.934097222249</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F24" s="3">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>56</v>
+      </c>
+      <c r="I24" s="9">
+        <f>IF(Sheet1!$B$3=F24,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F24,I23+(((G23*60)+H23)/86400),I25-(((G24*60)+H24)/86400)))</f>
+        <v>45191.944467592621</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F25" s="3">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4">
+        <v>56</v>
+      </c>
+      <c r="I25" s="9">
+        <f>IF(Sheet1!$B$3=F25,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F25,I24+(((G24*60)+H24)/86400),I26-(((G25*60)+H25)/86400)))</f>
+        <v>45191.954837962992</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F26" s="3">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4">
+        <v>56</v>
+      </c>
+      <c r="I26" s="9">
+        <f>IF(Sheet1!$B$3=F26,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F26,I25+(((G25*60)+H25)/86400),I27-(((G26*60)+H26)/86400)))</f>
+        <v>45191.965208333364</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F27" s="3">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4">
+        <v>14</v>
+      </c>
+      <c r="H27" s="4">
+        <v>56</v>
+      </c>
+      <c r="I27" s="9">
+        <f>IF(Sheet1!$B$3=F27,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F27,I26+(((G26*60)+H26)/86400),I28-(((G27*60)+H27)/86400)))</f>
+        <v>45191.975578703736</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F28" s="3">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4">
+        <v>56</v>
+      </c>
+      <c r="I28" s="9">
+        <f>IF(Sheet1!$B$3=F28,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F28,I27+(((G27*60)+H27)/86400),I29-(((G28*60)+H28)/86400)))</f>
+        <v>45191.985949074107</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F29" s="3">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4">
+        <v>14</v>
+      </c>
+      <c r="H29" s="4">
+        <v>56</v>
+      </c>
+      <c r="I29" s="9">
+        <f>IF(Sheet1!$B$3=F29,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F29,I28+(((G28*60)+H28)/86400),I30-(((G29*60)+H29)/86400)))</f>
+        <v>45191.996319444479</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F30" s="3">
+        <v>29</v>
+      </c>
+      <c r="G30" s="4">
+        <v>14</v>
+      </c>
+      <c r="H30" s="4">
+        <v>56</v>
+      </c>
+      <c r="I30" s="9">
+        <f>IF(Sheet1!$B$3=F30,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F30,I29+(((G29*60)+H29)/86400),I31-(((G30*60)+H30)/86400)))</f>
+        <v>45192.006689814851</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F31" s="3">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4">
+        <v>56</v>
+      </c>
+      <c r="I31" s="9">
+        <f>IF(Sheet1!$B$3=F31,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F31,I30+(((G30*60)+H30)/86400),I32-(((G31*60)+H31)/86400)))</f>
+        <v>45192.017060185222</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F32" s="3">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4">
+        <v>56</v>
+      </c>
+      <c r="I32" s="9">
+        <f>IF(Sheet1!$B$3=F32,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F32,I31+(((G31*60)+H31)/86400),I33-(((G32*60)+H32)/86400)))</f>
+        <v>45192.027430555594</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F33" s="3">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4">
+        <v>14</v>
+      </c>
+      <c r="H33" s="4">
+        <v>56</v>
+      </c>
+      <c r="I33" s="9">
+        <f>IF(Sheet1!$B$3=F33,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F33,I32+(((G32*60)+H32)/86400),I34-(((G33*60)+H33)/86400)))</f>
+        <v>45192.037800925966</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F34" s="3">
+        <v>33</v>
+      </c>
+      <c r="G34" s="4">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4">
+        <v>56</v>
+      </c>
+      <c r="I34" s="9">
+        <f>IF(Sheet1!$B$3=F34,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F34,I33+(((G33*60)+H33)/86400),I35-(((G34*60)+H34)/86400)))</f>
+        <v>45192.048171296337</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F35" s="3">
+        <v>34</v>
+      </c>
+      <c r="G35" s="4">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4">
+        <v>56</v>
+      </c>
+      <c r="I35" s="9">
+        <f>IF(Sheet1!$B$3=F35,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F35,I34+(((G34*60)+H34)/86400),I36-(((G35*60)+H35)/86400)))</f>
+        <v>45192.058541666709</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F36" s="3">
+        <v>35</v>
+      </c>
+      <c r="G36" s="4">
+        <v>14</v>
+      </c>
+      <c r="H36" s="4">
+        <v>56</v>
+      </c>
+      <c r="I36" s="9">
+        <f>IF(Sheet1!$B$3=F36,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F36,I35+(((G35*60)+H35)/86400),I37-(((G36*60)+H36)/86400)))</f>
+        <v>45192.068912037081</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F37" s="3">
+        <v>36</v>
+      </c>
+      <c r="G37" s="4">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4">
+        <v>56</v>
+      </c>
+      <c r="I37" s="9">
+        <f>IF(Sheet1!$B$3=F37,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F37,I36+(((G36*60)+H36)/86400),I38-(((G37*60)+H37)/86400)))</f>
+        <v>45192.079282407452</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F38" s="3">
+        <v>37</v>
+      </c>
+      <c r="G38" s="4">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4">
+        <v>56</v>
+      </c>
+      <c r="I38" s="9">
+        <f>IF(Sheet1!$B$3=F38,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F38,I37+(((G37*60)+H37)/86400),I39-(((G38*60)+H38)/86400)))</f>
+        <v>45192.089652777824</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F39" s="3">
+        <v>38</v>
+      </c>
+      <c r="G39" s="4">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4">
+        <v>56</v>
+      </c>
+      <c r="I39" s="9">
+        <f>IF(Sheet1!$B$3=F39,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F39,I38+(((G38*60)+H38)/86400),I40-(((G39*60)+H39)/86400)))</f>
+        <v>45192.100023148196</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F40" s="3">
+        <v>39</v>
+      </c>
+      <c r="G40" s="4">
+        <v>14</v>
+      </c>
+      <c r="H40" s="4">
+        <v>56</v>
+      </c>
+      <c r="I40" s="9">
+        <f>IF(Sheet1!$B$3=F40,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F40,I39+(((G39*60)+H39)/86400),I41-(((G40*60)+H40)/86400)))</f>
+        <v>45192.110393518567</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F41" s="3">
+        <v>40</v>
+      </c>
+      <c r="G41" s="4">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4">
+        <v>56</v>
+      </c>
+      <c r="I41" s="9">
+        <f>IF(Sheet1!$B$3=F41,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F41,I40+(((G40*60)+H40)/86400),E53-(((G41*60)+H41)/86400)))</f>
+        <v>45192.120763888939</v>
       </c>
     </row>
   </sheetData>
@@ -932,21 +1219,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5518DDA6-8A40-4924-BDDF-EAF689AB4825}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B7F88F-6071-4B7E-88B0-5131EC979CFF}">
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.53515625" customWidth="1"/>
+    <col min="1" max="1" width="18.921875" customWidth="1"/>
+    <col min="2" max="2" width="28.4609375" customWidth="1"/>
+    <col min="3" max="3" width="25.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <f>Sheet1!I2</f>
+        <v>45191.716319444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <f>Sheet1!I3</f>
+        <v>45191.726689814815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <f>Sheet1!I4</f>
+        <v>45191.737060185187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <f>Sheet1!I5</f>
+        <v>45191.747430555559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <f>Sheet1!I6</f>
+        <v>45191.75780092593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <f>Sheet1!I7</f>
+        <v>45191.768171296302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <f>Sheet1!I8</f>
+        <v>45191.778541666674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <f>Sheet1!I9</f>
+        <v>45191.788912037046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <f>Sheet1!I10</f>
+        <v>45191.799282407417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>Sheet1!I11</f>
+        <v>45191.809652777789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <f>Sheet1!I12</f>
+        <v>45191.820023148161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <f>Sheet1!I13</f>
+        <v>45191.830393518532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <f>Sheet1!I14</f>
+        <v>45191.840763888904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <f>Sheet1!I15</f>
+        <v>45191.851134259276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <f>Sheet1!I16</f>
+        <v>45191.861504629647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <f>Sheet1!I17</f>
+        <v>45191.871875000019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <f>Sheet1!I18</f>
+        <v>45191.882245370391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <f>Sheet1!I19</f>
+        <v>45191.892615740762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <f>Sheet1!I20</f>
+        <v>45191.902986111134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <f>Sheet1!I21</f>
+        <v>45191.913356481506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <f>Sheet1!I22</f>
+        <v>45191.923726851877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <f>Sheet1!I23</f>
+        <v>45191.934097222249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <f>Sheet1!I24</f>
+        <v>45191.944467592621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <f>Sheet1!I25</f>
+        <v>45191.954837962992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <f>Sheet1!I26</f>
+        <v>45191.965208333364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <f>Sheet1!I27</f>
+        <v>45191.975578703736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <f>Sheet1!I28</f>
+        <v>45191.985949074107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <f>Sheet1!I29</f>
+        <v>45191.996319444479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <f>Sheet1!I30</f>
+        <v>45192.006689814851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <f>Sheet1!I31</f>
+        <v>45192.017060185222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <f>Sheet1!I32</f>
+        <v>45192.027430555594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9">
+        <f>Sheet1!I33</f>
+        <v>45192.037800925966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9">
+        <f>Sheet1!I34</f>
+        <v>45192.048171296337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <f>Sheet1!I35</f>
+        <v>45192.058541666709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <f>Sheet1!I36</f>
+        <v>45192.068912037081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <f>Sheet1!I37</f>
+        <v>45192.079282407452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <f>Sheet1!I38</f>
+        <v>45192.089652777824</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <f>Sheet1!I39</f>
+        <v>45192.100023148196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <f>Sheet1!I40</f>
+        <v>45192.110393518567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <f>Sheet1!I41</f>
+        <v>45192.120763888939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Video Timecode Modifier/Time Conversion.xlsx
+++ b/Video Timecode Modifier/Time Conversion.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcbb1\OneDrive\Desktop\Video Timecode Modifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Video Timecode Modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9923E0A-0D74-495B-9E04-D8718FE85135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B52E25-07B2-445E-902B-5DB1C6341D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{A39CE188-709C-4E2F-B6B5-19B2A56F7B10}"/>
+    <workbookView xWindow="22875" yWindow="735" windowWidth="27090" windowHeight="21705" xr2:uid="{A39CE188-709C-4E2F-B6B5-19B2A56F7B10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Timecode Conversion" sheetId="1" r:id="rId1"/>
+    <sheet name="Timecode Export CSV" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -494,22 +494,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE6790-A06E-4F73-A4FE-26293B0AA022}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.61328125" customWidth="1"/>
-    <col min="5" max="5" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.23046875" customWidth="1"/>
-    <col min="7" max="7" width="10.765625" customWidth="1"/>
-    <col min="9" max="9" width="29.921875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -530,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -546,11 +544,11 @@
         <v>56</v>
       </c>
       <c r="I2" s="9">
-        <f>IF(Sheet1!$B$3=F2,Sheet1!$E$9,I3-(((G2*60)+H2)/86400))</f>
-        <v>45191.716319444444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F2,'Timecode Conversion'!$E$9,I3-(((G2*60)+H2)/86400))</f>
+        <v>45194.708333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -570,11 +568,11 @@
         <v>56</v>
       </c>
       <c r="I3" s="9">
-        <f>IF(Sheet1!$B$3=F3,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F3,I2+(((G2*60)+H2)/86400),I4-(((G3*60)+H3)/86400)))</f>
-        <v>45191.726689814815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F3,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F3,I2+(((G2*60)+H2)/86400),I4-(((G3*60)+H3)/86400)))</f>
+        <v>45194.718703703707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,16 +592,16 @@
         <v>56</v>
       </c>
       <c r="I4" s="9">
-        <f>IF(Sheet1!$B$3=F4,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F4,I3+(((G3*60)+H3)/86400),I5-(((G4*60)+H4)/86400)))</f>
-        <v>45191.737060185187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F4,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F4,I3+(((G3*60)+H3)/86400),I5-(((G4*60)+H4)/86400)))</f>
+        <v>45194.729074074079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -618,11 +616,11 @@
         <v>56</v>
       </c>
       <c r="I5" s="9">
-        <f>IF(Sheet1!$B$3=F5,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F5,I4+(((G4*60)+H4)/86400),I6-(((G5*60)+H5)/86400)))</f>
-        <v>45191.747430555559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F5,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F5,I4+(((G4*60)+H4)/86400),I6-(((G5*60)+H5)/86400)))</f>
+        <v>45194.739444444451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -630,14 +628,14 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <f>TIME(B6,C6,D6)</f>
-        <v>0.50798611111111114</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -649,11 +647,11 @@
         <v>56</v>
       </c>
       <c r="I6" s="9">
-        <f>IF(Sheet1!$B$3=F6,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F6,I5+(((G5*60)+H5)/86400),I7-(((G6*60)+H6)/86400)))</f>
-        <v>45191.75780092593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F6,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F6,I5+(((G5*60)+H5)/86400),I7-(((G6*60)+H6)/86400)))</f>
+        <v>45194.749814814822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -678,11 +676,11 @@
         <v>56</v>
       </c>
       <c r="I7" s="9">
-        <f>IF(Sheet1!$B$3=F7,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F7,I6+(((G6*60)+H6)/86400),I8-(((G7*60)+H7)/86400)))</f>
-        <v>45191.768171296302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F7,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F7,I6+(((G6*60)+H6)/86400),I8-(((G7*60)+H7)/86400)))</f>
+        <v>45194.760185185194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -691,7 +689,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="7">
         <f>B5+(E6-(E7/86400))+(-B4/24)</f>
-        <v>45191.716319444444</v>
+        <v>45194.708333333336</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
@@ -703,11 +701,11 @@
         <v>56</v>
       </c>
       <c r="I8" s="9">
-        <f>IF(Sheet1!$B$3=F8,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F8,I7+(((G7*60)+H7)/86400),I9-(((G8*60)+H8)/86400)))</f>
-        <v>45191.778541666674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F8,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F8,I7+(((G7*60)+H7)/86400),I9-(((G8*60)+H8)/86400)))</f>
+        <v>45194.770555555566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,7 +714,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="9">
         <f t="shared" ref="E9" si="0">E8+(((C8*60)+D8)/86400)</f>
-        <v>45191.716319444444</v>
+        <v>45194.708333333336</v>
       </c>
       <c r="F9" s="3">
         <v>8</v>
@@ -728,11 +726,11 @@
         <v>56</v>
       </c>
       <c r="I9" s="9">
-        <f>IF(Sheet1!$B$3=F9,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F9,I8+(((G8*60)+H8)/86400),I10-(((G9*60)+H9)/86400)))</f>
-        <v>45191.788912037046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F9,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F9,I8+(((G8*60)+H8)/86400),I10-(((G9*60)+H9)/86400)))</f>
+        <v>45194.780925925937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" s="3">
         <v>9</v>
       </c>
@@ -743,11 +741,11 @@
         <v>56</v>
       </c>
       <c r="I10" s="9">
-        <f>IF(Sheet1!$B$3=F10,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F10,I9+(((G9*60)+H9)/86400),I11-(((G10*60)+H10)/86400)))</f>
-        <v>45191.799282407417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F10,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F10,I9+(((G9*60)+H9)/86400),I11-(((G10*60)+H10)/86400)))</f>
+        <v>45194.791296296309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>10</v>
       </c>
@@ -758,11 +756,11 @@
         <v>56</v>
       </c>
       <c r="I11" s="9">
-        <f>IF(Sheet1!$B$3=F11,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F11,I10+(((G10*60)+H10)/86400),I12-(((G11*60)+H11)/86400)))</f>
-        <v>45191.809652777789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F11,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F11,I10+(((G10*60)+H10)/86400),I12-(((G11*60)+H11)/86400)))</f>
+        <v>45194.801666666681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="3">
         <v>11</v>
       </c>
@@ -773,11 +771,11 @@
         <v>56</v>
       </c>
       <c r="I12" s="9">
-        <f>IF(Sheet1!$B$3=F12,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F12,I11+(((G11*60)+H11)/86400),I13-(((G12*60)+H12)/86400)))</f>
-        <v>45191.820023148161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F12,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F12,I11+(((G11*60)+H11)/86400),I13-(((G12*60)+H12)/86400)))</f>
+        <v>45194.812037037053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="3">
         <v>12</v>
       </c>
@@ -788,11 +786,11 @@
         <v>56</v>
       </c>
       <c r="I13" s="9">
-        <f>IF(Sheet1!$B$3=F13,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F13,I12+(((G12*60)+H12)/86400),I14-(((G13*60)+H13)/86400)))</f>
-        <v>45191.830393518532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F13,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F13,I12+(((G12*60)+H12)/86400),I14-(((G13*60)+H13)/86400)))</f>
+        <v>45194.822407407424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="3">
         <v>13</v>
       </c>
@@ -803,11 +801,11 @@
         <v>56</v>
       </c>
       <c r="I14" s="9">
-        <f>IF(Sheet1!$B$3=F14,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F14,I13+(((G13*60)+H13)/86400),I15-(((G14*60)+H14)/86400)))</f>
-        <v>45191.840763888904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F14,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F14,I13+(((G13*60)+H13)/86400),I15-(((G14*60)+H14)/86400)))</f>
+        <v>45194.832777777796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="3">
         <v>14</v>
       </c>
@@ -818,11 +816,11 @@
         <v>56</v>
       </c>
       <c r="I15" s="9">
-        <f>IF(Sheet1!$B$3=F15,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F15,I14+(((G14*60)+H14)/86400),I16-(((G15*60)+H15)/86400)))</f>
-        <v>45191.851134259276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F15,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F15,I14+(((G14*60)+H14)/86400),I16-(((G15*60)+H15)/86400)))</f>
+        <v>45194.843148148168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <v>15</v>
       </c>
@@ -833,11 +831,11 @@
         <v>56</v>
       </c>
       <c r="I16" s="9">
-        <f>IF(Sheet1!$B$3=F16,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F16,I15+(((G15*60)+H15)/86400),I17-(((G16*60)+H16)/86400)))</f>
-        <v>45191.861504629647</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F16,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F16,I15+(((G15*60)+H15)/86400),I17-(((G16*60)+H16)/86400)))</f>
+        <v>45194.853518518539</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" s="3">
         <v>16</v>
       </c>
@@ -848,11 +846,11 @@
         <v>56</v>
       </c>
       <c r="I17" s="9">
-        <f>IF(Sheet1!$B$3=F17,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F17,I16+(((G16*60)+H16)/86400),I18-(((G17*60)+H17)/86400)))</f>
-        <v>45191.871875000019</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F17,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F17,I16+(((G16*60)+H16)/86400),I18-(((G17*60)+H17)/86400)))</f>
+        <v>45194.863888888911</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" s="3">
         <v>17</v>
       </c>
@@ -863,11 +861,11 @@
         <v>56</v>
       </c>
       <c r="I18" s="9">
-        <f>IF(Sheet1!$B$3=F18,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F18,I17+(((G17*60)+H17)/86400),I19-(((G18*60)+H18)/86400)))</f>
-        <v>45191.882245370391</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F18,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F18,I17+(((G17*60)+H17)/86400),I19-(((G18*60)+H18)/86400)))</f>
+        <v>45194.874259259283</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19" s="3">
         <v>18</v>
       </c>
@@ -878,11 +876,11 @@
         <v>56</v>
       </c>
       <c r="I19" s="9">
-        <f>IF(Sheet1!$B$3=F19,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F19,I18+(((G18*60)+H18)/86400),I20-(((G19*60)+H19)/86400)))</f>
-        <v>45191.892615740762</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F19,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F19,I18+(((G18*60)+H18)/86400),I20-(((G19*60)+H19)/86400)))</f>
+        <v>45194.884629629654</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F20" s="3">
         <v>19</v>
       </c>
@@ -893,11 +891,11 @@
         <v>56</v>
       </c>
       <c r="I20" s="9">
-        <f>IF(Sheet1!$B$3=F20,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F20,I19+(((G19*60)+H19)/86400),I21-(((G20*60)+H20)/86400)))</f>
-        <v>45191.902986111134</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F20,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F20,I19+(((G19*60)+H19)/86400),I21-(((G20*60)+H20)/86400)))</f>
+        <v>45194.895000000026</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F21" s="3">
         <v>20</v>
       </c>
@@ -908,11 +906,11 @@
         <v>56</v>
       </c>
       <c r="I21" s="9">
-        <f>IF(Sheet1!$B$3=F21,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F21,I20+(((G20*60)+H20)/86400),I22-(((G21*60)+H21)/86400)))</f>
-        <v>45191.913356481506</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F21,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F21,I20+(((G20*60)+H20)/86400),I22-(((G21*60)+H21)/86400)))</f>
+        <v>45194.905370370398</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22" s="3">
         <v>21</v>
       </c>
@@ -923,11 +921,11 @@
         <v>56</v>
       </c>
       <c r="I22" s="9">
-        <f>IF(Sheet1!$B$3=F22,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F22,I21+(((G21*60)+H21)/86400),I23-(((G22*60)+H22)/86400)))</f>
-        <v>45191.923726851877</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F22,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F22,I21+(((G21*60)+H21)/86400),I23-(((G22*60)+H22)/86400)))</f>
+        <v>45194.915740740769</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F23" s="3">
         <v>22</v>
       </c>
@@ -938,11 +936,11 @@
         <v>56</v>
       </c>
       <c r="I23" s="9">
-        <f>IF(Sheet1!$B$3=F23,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F23,I22+(((G22*60)+H22)/86400),I24-(((G23*60)+H23)/86400)))</f>
-        <v>45191.934097222249</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F23,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F23,I22+(((G22*60)+H22)/86400),I24-(((G23*60)+H23)/86400)))</f>
+        <v>45194.926111111141</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" s="3">
         <v>23</v>
       </c>
@@ -953,11 +951,11 @@
         <v>56</v>
       </c>
       <c r="I24" s="9">
-        <f>IF(Sheet1!$B$3=F24,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F24,I23+(((G23*60)+H23)/86400),I25-(((G24*60)+H24)/86400)))</f>
-        <v>45191.944467592621</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F24,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F24,I23+(((G23*60)+H23)/86400),I25-(((G24*60)+H24)/86400)))</f>
+        <v>45194.936481481513</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" s="3">
         <v>24</v>
       </c>
@@ -968,11 +966,11 @@
         <v>56</v>
       </c>
       <c r="I25" s="9">
-        <f>IF(Sheet1!$B$3=F25,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F25,I24+(((G24*60)+H24)/86400),I26-(((G25*60)+H25)/86400)))</f>
-        <v>45191.954837962992</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F25,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F25,I24+(((G24*60)+H24)/86400),I26-(((G25*60)+H25)/86400)))</f>
+        <v>45194.946851851884</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" s="3">
         <v>25</v>
       </c>
@@ -983,11 +981,11 @@
         <v>56</v>
       </c>
       <c r="I26" s="9">
-        <f>IF(Sheet1!$B$3=F26,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F26,I25+(((G25*60)+H25)/86400),I27-(((G26*60)+H26)/86400)))</f>
-        <v>45191.965208333364</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F26,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F26,I25+(((G25*60)+H25)/86400),I27-(((G26*60)+H26)/86400)))</f>
+        <v>45194.957222222256</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" s="3">
         <v>26</v>
       </c>
@@ -998,11 +996,11 @@
         <v>56</v>
       </c>
       <c r="I27" s="9">
-        <f>IF(Sheet1!$B$3=F27,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F27,I26+(((G26*60)+H26)/86400),I28-(((G27*60)+H27)/86400)))</f>
-        <v>45191.975578703736</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F27,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F27,I26+(((G26*60)+H26)/86400),I28-(((G27*60)+H27)/86400)))</f>
+        <v>45194.967592592628</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28" s="3">
         <v>27</v>
       </c>
@@ -1013,11 +1011,11 @@
         <v>56</v>
       </c>
       <c r="I28" s="9">
-        <f>IF(Sheet1!$B$3=F28,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F28,I27+(((G27*60)+H27)/86400),I29-(((G28*60)+H28)/86400)))</f>
-        <v>45191.985949074107</v>
-      </c>
-    </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F28,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F28,I27+(((G27*60)+H27)/86400),I29-(((G28*60)+H28)/86400)))</f>
+        <v>45194.977962962999</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F29" s="3">
         <v>28</v>
       </c>
@@ -1028,11 +1026,11 @@
         <v>56</v>
       </c>
       <c r="I29" s="9">
-        <f>IF(Sheet1!$B$3=F29,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F29,I28+(((G28*60)+H28)/86400),I30-(((G29*60)+H29)/86400)))</f>
-        <v>45191.996319444479</v>
-      </c>
-    </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F29,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F29,I28+(((G28*60)+H28)/86400),I30-(((G29*60)+H29)/86400)))</f>
+        <v>45194.988333333371</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30" s="3">
         <v>29</v>
       </c>
@@ -1043,11 +1041,11 @@
         <v>56</v>
       </c>
       <c r="I30" s="9">
-        <f>IF(Sheet1!$B$3=F30,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F30,I29+(((G29*60)+H29)/86400),I31-(((G30*60)+H30)/86400)))</f>
-        <v>45192.006689814851</v>
-      </c>
-    </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F30,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F30,I29+(((G29*60)+H29)/86400),I31-(((G30*60)+H30)/86400)))</f>
+        <v>45194.998703703743</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31" s="3">
         <v>30</v>
       </c>
@@ -1058,11 +1056,11 @@
         <v>56</v>
       </c>
       <c r="I31" s="9">
-        <f>IF(Sheet1!$B$3=F31,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F31,I30+(((G30*60)+H30)/86400),I32-(((G31*60)+H31)/86400)))</f>
-        <v>45192.017060185222</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F31,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F31,I30+(((G30*60)+H30)/86400),I32-(((G31*60)+H31)/86400)))</f>
+        <v>45195.009074074114</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F32" s="3">
         <v>31</v>
       </c>
@@ -1073,11 +1071,11 @@
         <v>56</v>
       </c>
       <c r="I32" s="9">
-        <f>IF(Sheet1!$B$3=F32,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F32,I31+(((G31*60)+H31)/86400),I33-(((G32*60)+H32)/86400)))</f>
-        <v>45192.027430555594</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F32,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F32,I31+(((G31*60)+H31)/86400),I33-(((G32*60)+H32)/86400)))</f>
+        <v>45195.019444444486</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" s="3">
         <v>32</v>
       </c>
@@ -1088,11 +1086,11 @@
         <v>56</v>
       </c>
       <c r="I33" s="9">
-        <f>IF(Sheet1!$B$3=F33,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F33,I32+(((G32*60)+H32)/86400),I34-(((G33*60)+H33)/86400)))</f>
-        <v>45192.037800925966</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F33,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F33,I32+(((G32*60)+H32)/86400),I34-(((G33*60)+H33)/86400)))</f>
+        <v>45195.029814814858</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F34" s="3">
         <v>33</v>
       </c>
@@ -1103,11 +1101,11 @@
         <v>56</v>
       </c>
       <c r="I34" s="9">
-        <f>IF(Sheet1!$B$3=F34,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F34,I33+(((G33*60)+H33)/86400),I35-(((G34*60)+H34)/86400)))</f>
-        <v>45192.048171296337</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F34,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F34,I33+(((G33*60)+H33)/86400),I35-(((G34*60)+H34)/86400)))</f>
+        <v>45195.040185185229</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F35" s="3">
         <v>34</v>
       </c>
@@ -1118,11 +1116,11 @@
         <v>56</v>
       </c>
       <c r="I35" s="9">
-        <f>IF(Sheet1!$B$3=F35,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F35,I34+(((G34*60)+H34)/86400),I36-(((G35*60)+H35)/86400)))</f>
-        <v>45192.058541666709</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F35,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F35,I34+(((G34*60)+H34)/86400),I36-(((G35*60)+H35)/86400)))</f>
+        <v>45195.050555555601</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" s="3">
         <v>35</v>
       </c>
@@ -1133,11 +1131,11 @@
         <v>56</v>
       </c>
       <c r="I36" s="9">
-        <f>IF(Sheet1!$B$3=F36,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F36,I35+(((G35*60)+H35)/86400),I37-(((G36*60)+H36)/86400)))</f>
-        <v>45192.068912037081</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F36,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F36,I35+(((G35*60)+H35)/86400),I37-(((G36*60)+H36)/86400)))</f>
+        <v>45195.060925925973</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F37" s="3">
         <v>36</v>
       </c>
@@ -1148,11 +1146,11 @@
         <v>56</v>
       </c>
       <c r="I37" s="9">
-        <f>IF(Sheet1!$B$3=F37,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F37,I36+(((G36*60)+H36)/86400),I38-(((G37*60)+H37)/86400)))</f>
-        <v>45192.079282407452</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F37,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F37,I36+(((G36*60)+H36)/86400),I38-(((G37*60)+H37)/86400)))</f>
+        <v>45195.071296296344</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" s="3">
         <v>37</v>
       </c>
@@ -1163,11 +1161,11 @@
         <v>56</v>
       </c>
       <c r="I38" s="9">
-        <f>IF(Sheet1!$B$3=F38,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F38,I37+(((G37*60)+H37)/86400),I39-(((G38*60)+H38)/86400)))</f>
-        <v>45192.089652777824</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F38,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F38,I37+(((G37*60)+H37)/86400),I39-(((G38*60)+H38)/86400)))</f>
+        <v>45195.081666666716</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F39" s="3">
         <v>38</v>
       </c>
@@ -1178,11 +1176,11 @@
         <v>56</v>
       </c>
       <c r="I39" s="9">
-        <f>IF(Sheet1!$B$3=F39,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F39,I38+(((G38*60)+H38)/86400),I40-(((G39*60)+H39)/86400)))</f>
-        <v>45192.100023148196</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F39,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F39,I38+(((G38*60)+H38)/86400),I40-(((G39*60)+H39)/86400)))</f>
+        <v>45195.092037037088</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F40" s="3">
         <v>39</v>
       </c>
@@ -1193,11 +1191,11 @@
         <v>56</v>
       </c>
       <c r="I40" s="9">
-        <f>IF(Sheet1!$B$3=F40,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F40,I39+(((G39*60)+H39)/86400),I41-(((G40*60)+H40)/86400)))</f>
-        <v>45192.110393518567</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.4">
+        <f>IF('Timecode Conversion'!$B$3=F40,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F40,I39+(((G39*60)+H39)/86400),I41-(((G40*60)+H40)/86400)))</f>
+        <v>45195.102407407459</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F41" s="3">
         <v>40</v>
       </c>
@@ -1208,8 +1206,8 @@
         <v>56</v>
       </c>
       <c r="I41" s="9">
-        <f>IF(Sheet1!$B$3=F41,Sheet1!$E$9,IF(Sheet1!$B$3&lt;F41,I40+(((G40*60)+H40)/86400),E53-(((G41*60)+H41)/86400)))</f>
-        <v>45192.120763888939</v>
+        <f>IF('Timecode Conversion'!$B$3=F41,'Timecode Conversion'!$E$9,IF('Timecode Conversion'!$B$3&lt;F41,I40+(((G40*60)+H40)/86400),E53-(((G41*60)+H41)/86400)))</f>
+        <v>45195.112777777831</v>
       </c>
     </row>
   </sheetData>
@@ -1222,18 +1220,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B7F88F-6071-4B7E-88B0-5131EC979CFF}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.921875" customWidth="1"/>
-    <col min="2" max="2" width="28.4609375" customWidth="1"/>
-    <col min="3" max="3" width="25.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1241,364 +1237,364 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <f>Sheet1!I2</f>
-        <v>45191.716319444444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I2</f>
+        <v>45194.708333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <f>Sheet1!I3</f>
-        <v>45191.726689814815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I3</f>
+        <v>45194.718703703707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <f>Sheet1!I4</f>
-        <v>45191.737060185187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I4</f>
+        <v>45194.729074074079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <f>Sheet1!I5</f>
-        <v>45191.747430555559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I5</f>
+        <v>45194.739444444451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <f>Sheet1!I6</f>
-        <v>45191.75780092593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I6</f>
+        <v>45194.749814814822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <f>Sheet1!I7</f>
-        <v>45191.768171296302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I7</f>
+        <v>45194.760185185194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <f>Sheet1!I8</f>
-        <v>45191.778541666674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I8</f>
+        <v>45194.770555555566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <f>Sheet1!I9</f>
-        <v>45191.788912037046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I9</f>
+        <v>45194.780925925937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="9">
-        <f>Sheet1!I10</f>
-        <v>45191.799282407417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I10</f>
+        <v>45194.791296296309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="9">
-        <f>Sheet1!I11</f>
-        <v>45191.809652777789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I11</f>
+        <v>45194.801666666681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <f>Sheet1!I12</f>
-        <v>45191.820023148161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I12</f>
+        <v>45194.812037037053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <f>Sheet1!I13</f>
-        <v>45191.830393518532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I13</f>
+        <v>45194.822407407424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <f>Sheet1!I14</f>
-        <v>45191.840763888904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I14</f>
+        <v>45194.832777777796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="9">
-        <f>Sheet1!I15</f>
-        <v>45191.851134259276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I15</f>
+        <v>45194.843148148168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="9">
-        <f>Sheet1!I16</f>
-        <v>45191.861504629647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I16</f>
+        <v>45194.853518518539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <f>Sheet1!I17</f>
-        <v>45191.871875000019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I17</f>
+        <v>45194.863888888911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="9">
-        <f>Sheet1!I18</f>
-        <v>45191.882245370391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I18</f>
+        <v>45194.874259259283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="9">
-        <f>Sheet1!I19</f>
-        <v>45191.892615740762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I19</f>
+        <v>45194.884629629654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="9">
-        <f>Sheet1!I20</f>
-        <v>45191.902986111134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I20</f>
+        <v>45194.895000000026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="9">
-        <f>Sheet1!I21</f>
-        <v>45191.913356481506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I21</f>
+        <v>45194.905370370398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="9">
-        <f>Sheet1!I22</f>
-        <v>45191.923726851877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I22</f>
+        <v>45194.915740740769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="9">
-        <f>Sheet1!I23</f>
-        <v>45191.934097222249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I23</f>
+        <v>45194.926111111141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="9">
-        <f>Sheet1!I24</f>
-        <v>45191.944467592621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I24</f>
+        <v>45194.936481481513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="9">
-        <f>Sheet1!I25</f>
-        <v>45191.954837962992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I25</f>
+        <v>45194.946851851884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="9">
-        <f>Sheet1!I26</f>
-        <v>45191.965208333364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I26</f>
+        <v>45194.957222222256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="9">
-        <f>Sheet1!I27</f>
-        <v>45191.975578703736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I27</f>
+        <v>45194.967592592628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="9">
-        <f>Sheet1!I28</f>
-        <v>45191.985949074107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I28</f>
+        <v>45194.977962962999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="9">
-        <f>Sheet1!I29</f>
-        <v>45191.996319444479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I29</f>
+        <v>45194.988333333371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="9">
-        <f>Sheet1!I30</f>
-        <v>45192.006689814851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I30</f>
+        <v>45194.998703703743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="9">
-        <f>Sheet1!I31</f>
-        <v>45192.017060185222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I31</f>
+        <v>45195.009074074114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="9">
-        <f>Sheet1!I32</f>
-        <v>45192.027430555594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I32</f>
+        <v>45195.019444444486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="9">
-        <f>Sheet1!I33</f>
-        <v>45192.037800925966</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I33</f>
+        <v>45195.029814814858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="9">
-        <f>Sheet1!I34</f>
-        <v>45192.048171296337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I34</f>
+        <v>45195.040185185229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="9">
-        <f>Sheet1!I35</f>
-        <v>45192.058541666709</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I35</f>
+        <v>45195.050555555601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="9">
-        <f>Sheet1!I36</f>
-        <v>45192.068912037081</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I36</f>
+        <v>45195.060925925973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="9">
-        <f>Sheet1!I37</f>
-        <v>45192.079282407452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I37</f>
+        <v>45195.071296296344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="9">
-        <f>Sheet1!I38</f>
-        <v>45192.089652777824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I38</f>
+        <v>45195.081666666716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="9">
-        <f>Sheet1!I39</f>
-        <v>45192.100023148196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I39</f>
+        <v>45195.092037037088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="9">
-        <f>Sheet1!I40</f>
-        <v>45192.110393518567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+        <f>'Timecode Conversion'!I40</f>
+        <v>45195.102407407459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="9">
-        <f>Sheet1!I41</f>
-        <v>45192.120763888939</v>
+        <f>'Timecode Conversion'!I41</f>
+        <v>45195.112777777831</v>
       </c>
     </row>
   </sheetData>
